--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>4.25267382904582</v>
+        <v>0.097665</v>
       </c>
       <c r="H2">
-        <v>4.25267382904582</v>
+        <v>0.19533</v>
       </c>
       <c r="I2">
-        <v>0.07438807655306358</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J2">
-        <v>0.07438807655306358</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.29433901930352</v>
+        <v>0.315818</v>
       </c>
       <c r="N2">
-        <v>0.29433901930352</v>
+        <v>0.947454</v>
       </c>
       <c r="O2">
-        <v>0.1148712061351322</v>
+        <v>0.06869162989733928</v>
       </c>
       <c r="P2">
-        <v>0.1148712061351322</v>
+        <v>0.07580638708820531</v>
       </c>
       <c r="Q2">
-        <v>1.251727844259092</v>
+        <v>0.03084436497</v>
       </c>
       <c r="R2">
-        <v>1.251727844259092</v>
+        <v>0.18506618982</v>
       </c>
       <c r="S2">
-        <v>0.008545048075722957</v>
+        <v>0.0001086980970541544</v>
       </c>
       <c r="T2">
-        <v>0.008545048075722957</v>
+        <v>8.152455968865548E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>4.25267382904582</v>
+        <v>0.097665</v>
       </c>
       <c r="H3">
-        <v>4.25267382904582</v>
+        <v>0.19533</v>
       </c>
       <c r="I3">
-        <v>0.07438807655306358</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J3">
-        <v>0.07438807655306358</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17406587364407</v>
+        <v>1.612052666666667</v>
       </c>
       <c r="N3">
-        <v>1.17406587364407</v>
+        <v>4.836158</v>
       </c>
       <c r="O3">
-        <v>0.4582007621915696</v>
+        <v>0.3506276562883861</v>
       </c>
       <c r="P3">
-        <v>0.4582007621915696</v>
+        <v>0.3869440261666749</v>
       </c>
       <c r="Q3">
-        <v>4.992919214421953</v>
+        <v>0.15744112369</v>
       </c>
       <c r="R3">
-        <v>4.992919214421953</v>
+        <v>0.9446467421400001</v>
       </c>
       <c r="S3">
-        <v>0.03408467337457856</v>
+        <v>0.0005548355610438349</v>
       </c>
       <c r="T3">
-        <v>0.03408467337457856</v>
+        <v>0.0004161317082779415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>4.25267382904582</v>
+        <v>0.097665</v>
       </c>
       <c r="H4">
-        <v>4.25267382904582</v>
+        <v>0.19533</v>
       </c>
       <c r="I4">
-        <v>0.07438807655306358</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J4">
-        <v>0.07438807655306358</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.09393452357482</v>
+        <v>1.305232666666667</v>
       </c>
       <c r="N4">
-        <v>1.09393452357482</v>
+        <v>3.915698</v>
       </c>
       <c r="O4">
-        <v>0.4269280316732982</v>
+        <v>0.2838931260047998</v>
       </c>
       <c r="P4">
-        <v>0.4269280316732982</v>
+        <v>0.3132974459008156</v>
       </c>
       <c r="Q4">
-        <v>4.652146719096344</v>
+        <v>0.12747554839</v>
       </c>
       <c r="R4">
-        <v>4.652146719096344</v>
+        <v>0.76485329034</v>
       </c>
       <c r="S4">
-        <v>0.03175835510276206</v>
+        <v>0.0004492343915786502</v>
       </c>
       <c r="T4">
-        <v>0.03175835510276206</v>
+        <v>0.0003369298723988171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>20.3417610070971</v>
+        <v>0.097665</v>
       </c>
       <c r="H5">
-        <v>20.3417610070971</v>
+        <v>0.19533</v>
       </c>
       <c r="I5">
-        <v>0.3558195469130485</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J5">
-        <v>0.3558195469130485</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.29433901930352</v>
+        <v>0.069997</v>
       </c>
       <c r="N5">
-        <v>0.29433901930352</v>
+        <v>0.209991</v>
       </c>
       <c r="O5">
-        <v>0.1148712061351322</v>
+        <v>0.01522461676637829</v>
       </c>
       <c r="P5">
-        <v>0.1148712061351322</v>
+        <v>0.01680151124069276</v>
       </c>
       <c r="Q5">
-        <v>5.987373985735545</v>
+        <v>0.006836257005000001</v>
       </c>
       <c r="R5">
-        <v>5.987373985735545</v>
+        <v>0.04101754203</v>
       </c>
       <c r="S5">
-        <v>0.04087342052035813</v>
+        <v>2.409153594633507E-05</v>
       </c>
       <c r="T5">
-        <v>0.04087342052035813</v>
+        <v>1.806887069301565E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>20.3417610070971</v>
+        <v>0.097665</v>
       </c>
       <c r="H6">
-        <v>20.3417610070971</v>
+        <v>0.19533</v>
       </c>
       <c r="I6">
-        <v>0.3558195469130485</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J6">
-        <v>0.3558195469130485</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>1.17406587364407</v>
+        <v>1.2945195</v>
       </c>
       <c r="N6">
-        <v>1.17406587364407</v>
+        <v>2.589039</v>
       </c>
       <c r="O6">
-        <v>0.4582007621915696</v>
+        <v>0.2815629710430966</v>
       </c>
       <c r="P6">
-        <v>0.4582007621915696</v>
+        <v>0.2071506296036114</v>
       </c>
       <c r="Q6">
-        <v>23.88256740825634</v>
+        <v>0.1264292469675</v>
       </c>
       <c r="R6">
-        <v>23.88256740825634</v>
+        <v>0.5057169878700001</v>
       </c>
       <c r="S6">
-        <v>0.1630367875982178</v>
+        <v>0.00044554713869854</v>
       </c>
       <c r="T6">
-        <v>0.1630367875982178</v>
+        <v>0.0002227762661741435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3417610070971</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H7">
-        <v>20.3417610070971</v>
+        <v>13.81033</v>
       </c>
       <c r="I7">
-        <v>0.3558195469130485</v>
+        <v>0.07458679860441011</v>
       </c>
       <c r="J7">
-        <v>0.3558195469130485</v>
+        <v>0.07603573865204179</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.09393452357482</v>
+        <v>0.315818</v>
       </c>
       <c r="N7">
-        <v>1.09393452357482</v>
+        <v>0.947454</v>
       </c>
       <c r="O7">
-        <v>0.4269280316732982</v>
+        <v>0.06869162989733928</v>
       </c>
       <c r="P7">
-        <v>0.4269280316732982</v>
+        <v>0.07580638708820531</v>
       </c>
       <c r="Q7">
-        <v>22.25255463597162</v>
+        <v>1.453850266646667</v>
       </c>
       <c r="R7">
-        <v>22.25255463597162</v>
+        <v>13.08465239982</v>
       </c>
       <c r="S7">
-        <v>0.1519093387944726</v>
+        <v>0.005123488764961521</v>
       </c>
       <c r="T7">
-        <v>0.1519093387944726</v>
+        <v>0.005763994636794294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.0910015202822</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H8">
-        <v>30.0910015202822</v>
+        <v>13.81033</v>
       </c>
       <c r="I8">
-        <v>0.5263539633255488</v>
+        <v>0.07458679860441011</v>
       </c>
       <c r="J8">
-        <v>0.5263539633255488</v>
+        <v>0.07603573865204179</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.29433901930352</v>
+        <v>1.612052666666667</v>
       </c>
       <c r="N8">
-        <v>0.29433901930352</v>
+        <v>4.836158</v>
       </c>
       <c r="O8">
-        <v>0.1148712061351322</v>
+        <v>0.3506276562883861</v>
       </c>
       <c r="P8">
-        <v>0.1148712061351322</v>
+        <v>0.3869440261666749</v>
       </c>
       <c r="Q8">
-        <v>8.856955877340594</v>
+        <v>7.42099310134889</v>
       </c>
       <c r="R8">
-        <v>8.856955877340594</v>
+        <v>66.78893791214</v>
       </c>
       <c r="S8">
-        <v>0.06046291462121291</v>
+        <v>0.02615219438471818</v>
       </c>
       <c r="T8">
-        <v>0.06046291462121291</v>
+        <v>0.02942157484657812</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.0910015202822</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H9">
-        <v>30.0910015202822</v>
+        <v>13.81033</v>
       </c>
       <c r="I9">
-        <v>0.5263539633255488</v>
+        <v>0.07458679860441011</v>
       </c>
       <c r="J9">
-        <v>0.5263539633255488</v>
+        <v>0.07603573865204179</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.17406587364407</v>
+        <v>1.305232666666667</v>
       </c>
       <c r="N9">
-        <v>1.17406587364407</v>
+        <v>3.915698</v>
       </c>
       <c r="O9">
-        <v>0.4582007621915696</v>
+        <v>0.2838931260047998</v>
       </c>
       <c r="P9">
-        <v>0.4582007621915696</v>
+        <v>0.3132974459008156</v>
       </c>
       <c r="Q9">
-        <v>35.32881798873516</v>
+        <v>6.008564617815557</v>
       </c>
       <c r="R9">
-        <v>35.32881798873516</v>
+        <v>54.07708156034</v>
       </c>
       <c r="S9">
-        <v>0.2411757871783199</v>
+        <v>0.02117467941449643</v>
       </c>
       <c r="T9">
-        <v>0.2411757871783199</v>
+        <v>0.02382180271686661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.0910015202822</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H10">
-        <v>30.0910015202822</v>
+        <v>13.81033</v>
       </c>
       <c r="I10">
-        <v>0.5263539633255488</v>
+        <v>0.07458679860441011</v>
       </c>
       <c r="J10">
-        <v>0.5263539633255488</v>
+        <v>0.07603573865204179</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.09393452357482</v>
+        <v>0.069997</v>
       </c>
       <c r="N10">
-        <v>1.09393452357482</v>
+        <v>0.209991</v>
       </c>
       <c r="O10">
-        <v>0.4269280316732982</v>
+        <v>0.01522461676637829</v>
       </c>
       <c r="P10">
-        <v>0.4269280316732982</v>
+        <v>0.01680151124069276</v>
       </c>
       <c r="Q10">
-        <v>32.91758541197909</v>
+        <v>0.3222272230033334</v>
       </c>
       <c r="R10">
-        <v>32.91758541197909</v>
+        <v>2.90004500703</v>
       </c>
       <c r="S10">
-        <v>0.224715261526016</v>
+        <v>0.001135555424583183</v>
       </c>
       <c r="T10">
-        <v>0.224715261526016</v>
+        <v>0.001277515317656657</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.48332006399719</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H11">
-        <v>2.48332006399719</v>
+        <v>13.81033</v>
       </c>
       <c r="I11">
-        <v>0.04343841320833904</v>
+        <v>0.07458679860441011</v>
       </c>
       <c r="J11">
-        <v>0.04343841320833904</v>
+        <v>0.07603573865204179</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.29433901930352</v>
+        <v>1.2945195</v>
       </c>
       <c r="N11">
-        <v>0.29433901930352</v>
+        <v>2.589039</v>
       </c>
       <c r="O11">
-        <v>0.1148712061351322</v>
+        <v>0.2815629710430966</v>
       </c>
       <c r="P11">
-        <v>0.1148712061351322</v>
+        <v>0.2071506296036114</v>
       </c>
       <c r="Q11">
-        <v>0.7309379922536875</v>
+        <v>5.959247162145001</v>
       </c>
       <c r="R11">
-        <v>0.7309379922536875</v>
+        <v>35.75548297287001</v>
       </c>
       <c r="S11">
-        <v>0.004989822917838162</v>
+        <v>0.0210008806156508</v>
       </c>
       <c r="T11">
-        <v>0.004989822917838162</v>
+        <v>0.0157508511341461</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.48332006399719</v>
+        <v>23.02695066666666</v>
       </c>
       <c r="H12">
-        <v>2.48332006399719</v>
+        <v>69.08085199999999</v>
       </c>
       <c r="I12">
-        <v>0.04343841320833904</v>
+        <v>0.3730917071167062</v>
       </c>
       <c r="J12">
-        <v>0.04343841320833904</v>
+        <v>0.3803394711445981</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.17406587364407</v>
+        <v>0.315818</v>
       </c>
       <c r="N12">
-        <v>1.17406587364407</v>
+        <v>0.947454</v>
       </c>
       <c r="O12">
-        <v>0.4582007621915696</v>
+        <v>0.06869162989733928</v>
       </c>
       <c r="P12">
-        <v>0.4582007621915696</v>
+        <v>0.07580638708820531</v>
       </c>
       <c r="Q12">
-        <v>2.915581340474709</v>
+        <v>7.272325505645332</v>
       </c>
       <c r="R12">
-        <v>2.915581340474709</v>
+        <v>65.450929550808</v>
       </c>
       <c r="S12">
-        <v>0.01990351404045329</v>
+        <v>0.02562827746302728</v>
       </c>
       <c r="T12">
-        <v>0.01990351404045329</v>
+        <v>0.0288321611745107</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.48332006399719</v>
+        <v>23.02695066666666</v>
       </c>
       <c r="H13">
-        <v>2.48332006399719</v>
+        <v>69.08085199999999</v>
       </c>
       <c r="I13">
-        <v>0.04343841320833904</v>
+        <v>0.3730917071167062</v>
       </c>
       <c r="J13">
-        <v>0.04343841320833904</v>
+        <v>0.3803394711445981</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.09393452357482</v>
+        <v>1.612052666666667</v>
       </c>
       <c r="N13">
-        <v>1.09393452357482</v>
+        <v>4.836158</v>
       </c>
       <c r="O13">
-        <v>0.4269280316732982</v>
+        <v>0.3506276562883861</v>
       </c>
       <c r="P13">
-        <v>0.4269280316732982</v>
+        <v>0.3869440261666749</v>
       </c>
       <c r="Q13">
-        <v>2.716589551092558</v>
+        <v>37.12065722740178</v>
       </c>
       <c r="R13">
-        <v>2.716589551092558</v>
+        <v>334.085915046616</v>
       </c>
       <c r="S13">
-        <v>0.01854507625004758</v>
+        <v>0.1308162708469637</v>
       </c>
       <c r="T13">
-        <v>0.01854507625004758</v>
+        <v>0.1471700862747947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>23.02695066666666</v>
+      </c>
+      <c r="H14">
+        <v>69.08085199999999</v>
+      </c>
+      <c r="I14">
+        <v>0.3730917071167062</v>
+      </c>
+      <c r="J14">
+        <v>0.3803394711445981</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.305232666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.915698</v>
+      </c>
+      <c r="O14">
+        <v>0.2838931260047998</v>
+      </c>
+      <c r="P14">
+        <v>0.3132974459008156</v>
+      </c>
+      <c r="Q14">
+        <v>30.05552822385511</v>
+      </c>
+      <c r="R14">
+        <v>270.499754014696</v>
+      </c>
+      <c r="S14">
+        <v>0.1059181710198289</v>
+      </c>
+      <c r="T14">
+        <v>0.1191593848848695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>23.02695066666666</v>
+      </c>
+      <c r="H15">
+        <v>69.08085199999999</v>
+      </c>
+      <c r="I15">
+        <v>0.3730917071167062</v>
+      </c>
+      <c r="J15">
+        <v>0.3803394711445981</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.069997</v>
+      </c>
+      <c r="N15">
+        <v>0.209991</v>
+      </c>
+      <c r="O15">
+        <v>0.01522461676637829</v>
+      </c>
+      <c r="P15">
+        <v>0.01680151124069276</v>
+      </c>
+      <c r="Q15">
+        <v>1.611817465814667</v>
+      </c>
+      <c r="R15">
+        <v>14.506357192332</v>
+      </c>
+      <c r="S15">
+        <v>0.005680178259565702</v>
+      </c>
+      <c r="T15">
+        <v>0.006390277899715105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>23.02695066666666</v>
+      </c>
+      <c r="H16">
+        <v>69.08085199999999</v>
+      </c>
+      <c r="I16">
+        <v>0.3730917071167062</v>
+      </c>
+      <c r="J16">
+        <v>0.3803394711445981</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>1.2945195</v>
+      </c>
+      <c r="N16">
+        <v>2.589039</v>
+      </c>
+      <c r="O16">
+        <v>0.2815629710430966</v>
+      </c>
+      <c r="P16">
+        <v>0.2071506296036114</v>
+      </c>
+      <c r="Q16">
+        <v>29.808836663538</v>
+      </c>
+      <c r="R16">
+        <v>178.853019981228</v>
+      </c>
+      <c r="S16">
+        <v>0.1050488095273206</v>
+      </c>
+      <c r="T16">
+        <v>0.07878756091070807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H17">
+        <v>90.328322</v>
+      </c>
+      <c r="I17">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J17">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.315818</v>
+      </c>
+      <c r="N17">
+        <v>0.947454</v>
+      </c>
+      <c r="O17">
+        <v>0.06869162989733928</v>
+      </c>
+      <c r="P17">
+        <v>0.07580638708820531</v>
+      </c>
+      <c r="Q17">
+        <v>9.509103332465333</v>
+      </c>
+      <c r="R17">
+        <v>85.58192999218799</v>
+      </c>
+      <c r="S17">
+        <v>0.03351086780148096</v>
+      </c>
+      <c r="T17">
+        <v>0.03770018265737517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H18">
+        <v>90.328322</v>
+      </c>
+      <c r="I18">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J18">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.612052666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.836158</v>
+      </c>
+      <c r="O18">
+        <v>0.3506276562883861</v>
+      </c>
+      <c r="P18">
+        <v>0.3869440261666749</v>
+      </c>
+      <c r="Q18">
+        <v>48.53800411854179</v>
+      </c>
+      <c r="R18">
+        <v>436.842037066876</v>
+      </c>
+      <c r="S18">
+        <v>0.1710519470128097</v>
+      </c>
+      <c r="T18">
+        <v>0.1924357699264832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H19">
+        <v>90.328322</v>
+      </c>
+      <c r="I19">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J19">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.305232666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.915698</v>
+      </c>
+      <c r="O19">
+        <v>0.2838931260047998</v>
+      </c>
+      <c r="P19">
+        <v>0.3132974459008156</v>
+      </c>
+      <c r="Q19">
+        <v>39.29982553319511</v>
+      </c>
+      <c r="R19">
+        <v>353.698429798756</v>
+      </c>
+      <c r="S19">
+        <v>0.1384958404614086</v>
+      </c>
+      <c r="T19">
+        <v>0.1558097066782331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H20">
+        <v>90.328322</v>
+      </c>
+      <c r="I20">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J20">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.069997</v>
+      </c>
+      <c r="N20">
+        <v>0.209991</v>
+      </c>
+      <c r="O20">
+        <v>0.01522461676637829</v>
+      </c>
+      <c r="P20">
+        <v>0.01680151124069276</v>
+      </c>
+      <c r="Q20">
+        <v>2.107570518344667</v>
+      </c>
+      <c r="R20">
+        <v>18.968134665102</v>
+      </c>
+      <c r="S20">
+        <v>0.007427253080889194</v>
+      </c>
+      <c r="T20">
+        <v>0.008355760866917939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H21">
+        <v>90.328322</v>
+      </c>
+      <c r="I21">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J21">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>1.2945195</v>
+      </c>
+      <c r="N21">
+        <v>2.589039</v>
+      </c>
+      <c r="O21">
+        <v>0.2815629710430966</v>
+      </c>
+      <c r="P21">
+        <v>0.2071506296036114</v>
+      </c>
+      <c r="Q21">
+        <v>38.977258077093</v>
+      </c>
+      <c r="R21">
+        <v>233.863548462558</v>
+      </c>
+      <c r="S21">
+        <v>0.1373590860272031</v>
+      </c>
+      <c r="T21">
+        <v>0.1030205616389481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.451068</v>
+      </c>
+      <c r="H22">
+        <v>1.353204</v>
+      </c>
+      <c r="I22">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J22">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.315818</v>
+      </c>
+      <c r="N22">
+        <v>0.947454</v>
+      </c>
+      <c r="O22">
+        <v>0.06869162989733928</v>
+      </c>
+      <c r="P22">
+        <v>0.07580638708820531</v>
+      </c>
+      <c r="Q22">
+        <v>0.142455393624</v>
+      </c>
+      <c r="R22">
+        <v>1.282098542616</v>
+      </c>
+      <c r="S22">
+        <v>0.0005020246069935324</v>
+      </c>
+      <c r="T22">
+        <v>0.0005647845198839263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.451068</v>
+      </c>
+      <c r="H23">
+        <v>1.353204</v>
+      </c>
+      <c r="I23">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J23">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.612052666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.836158</v>
+      </c>
+      <c r="O23">
+        <v>0.3506276562883861</v>
+      </c>
+      <c r="P23">
+        <v>0.3869440261666749</v>
+      </c>
+      <c r="Q23">
+        <v>0.727145372248</v>
+      </c>
+      <c r="R23">
+        <v>6.544308350232</v>
+      </c>
+      <c r="S23">
+        <v>0.002562520522694112</v>
+      </c>
+      <c r="T23">
+        <v>0.002882870486707333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.451068</v>
+      </c>
+      <c r="H24">
+        <v>1.353204</v>
+      </c>
+      <c r="I24">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J24">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.305232666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.915698</v>
+      </c>
+      <c r="O24">
+        <v>0.2838931260047998</v>
+      </c>
+      <c r="P24">
+        <v>0.3132974459008156</v>
+      </c>
+      <c r="Q24">
+        <v>0.588748688488</v>
+      </c>
+      <c r="R24">
+        <v>5.298738196392</v>
+      </c>
+      <c r="S24">
+        <v>0.002074799145452297</v>
+      </c>
+      <c r="T24">
+        <v>0.002334177295088152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.451068</v>
+      </c>
+      <c r="H25">
+        <v>1.353204</v>
+      </c>
+      <c r="I25">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J25">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.069997</v>
+      </c>
+      <c r="N25">
+        <v>0.209991</v>
+      </c>
+      <c r="O25">
+        <v>0.01522461676637829</v>
+      </c>
+      <c r="P25">
+        <v>0.01680151124069276</v>
+      </c>
+      <c r="Q25">
+        <v>0.031573406796</v>
+      </c>
+      <c r="R25">
+        <v>0.284160661164</v>
+      </c>
+      <c r="S25">
+        <v>0.0001112673008369576</v>
+      </c>
+      <c r="T25">
+        <v>0.0001251772287783318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.451068</v>
+      </c>
+      <c r="H26">
+        <v>1.353204</v>
+      </c>
+      <c r="I26">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J26">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>1.2945195</v>
+      </c>
+      <c r="N26">
+        <v>2.589039</v>
+      </c>
+      <c r="O26">
+        <v>0.2815629710430966</v>
+      </c>
+      <c r="P26">
+        <v>0.2071506296036114</v>
+      </c>
+      <c r="Q26">
+        <v>0.583916321826</v>
+      </c>
+      <c r="R26">
+        <v>3.503497930956</v>
+      </c>
+      <c r="S26">
+        <v>0.002057769485060902</v>
+      </c>
+      <c r="T26">
+        <v>0.001543345796815213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.43071</v>
+      </c>
+      <c r="H27">
+        <v>6.86142</v>
+      </c>
+      <c r="I27">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J27">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.315818</v>
+      </c>
+      <c r="N27">
+        <v>0.947454</v>
+      </c>
+      <c r="O27">
+        <v>0.06869162989733928</v>
+      </c>
+      <c r="P27">
+        <v>0.07580638708820531</v>
+      </c>
+      <c r="Q27">
+        <v>1.08347997078</v>
+      </c>
+      <c r="R27">
+        <v>6.50087982468</v>
+      </c>
+      <c r="S27">
+        <v>0.003818273163821822</v>
+      </c>
+      <c r="T27">
+        <v>0.002863739539952565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.43071</v>
+      </c>
+      <c r="H28">
+        <v>6.86142</v>
+      </c>
+      <c r="I28">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J28">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.612052666666667</v>
+      </c>
+      <c r="N28">
+        <v>4.836158</v>
+      </c>
+      <c r="O28">
+        <v>0.3506276562883861</v>
+      </c>
+      <c r="P28">
+        <v>0.3869440261666749</v>
+      </c>
+      <c r="Q28">
+        <v>5.530485204060001</v>
+      </c>
+      <c r="R28">
+        <v>33.18291122436</v>
+      </c>
+      <c r="S28">
+        <v>0.0194898879601566</v>
+      </c>
+      <c r="T28">
+        <v>0.01461759292383368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.43071</v>
+      </c>
+      <c r="H29">
+        <v>6.86142</v>
+      </c>
+      <c r="I29">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J29">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.305232666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.915698</v>
+      </c>
+      <c r="O29">
+        <v>0.2838931260047998</v>
+      </c>
+      <c r="P29">
+        <v>0.3132974459008156</v>
+      </c>
+      <c r="Q29">
+        <v>4.47787476186</v>
+      </c>
+      <c r="R29">
+        <v>26.86724857116</v>
+      </c>
+      <c r="S29">
+        <v>0.01578040157203493</v>
+      </c>
+      <c r="T29">
+        <v>0.0118354444533594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.43071</v>
+      </c>
+      <c r="H30">
+        <v>6.86142</v>
+      </c>
+      <c r="I30">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J30">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.069997</v>
+      </c>
+      <c r="N30">
+        <v>0.209991</v>
+      </c>
+      <c r="O30">
+        <v>0.01522461676637829</v>
+      </c>
+      <c r="P30">
+        <v>0.01680151124069276</v>
+      </c>
+      <c r="Q30">
+        <v>0.24013940787</v>
+      </c>
+      <c r="R30">
+        <v>1.44083644722</v>
+      </c>
+      <c r="S30">
+        <v>0.0008462711645569159</v>
+      </c>
+      <c r="T30">
+        <v>0.0006347110569317128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.43071</v>
+      </c>
+      <c r="H31">
+        <v>6.86142</v>
+      </c>
+      <c r="I31">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J31">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>1.2945195</v>
+      </c>
+      <c r="N31">
+        <v>2.589039</v>
+      </c>
+      <c r="O31">
+        <v>0.2815629710430966</v>
+      </c>
+      <c r="P31">
+        <v>0.2071506296036114</v>
+      </c>
+      <c r="Q31">
+        <v>4.441120993845</v>
+      </c>
+      <c r="R31">
+        <v>17.76448397538</v>
+      </c>
+      <c r="S31">
+        <v>0.01565087824916263</v>
+      </c>
+      <c r="T31">
+        <v>0.007825533856819696</v>
       </c>
     </row>
   </sheetData>
